--- a/data/vital.xlsx
+++ b/data/vital.xlsx
@@ -61,8 +61,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.0\ "/>
-    <numFmt numFmtId="169" formatCode="0.00\ "/>
+    <numFmt numFmtId="164" formatCode="0.0\ "/>
+    <numFmt numFmtId="165" formatCode="0.00\ "/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -163,21 +163,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -468,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1682,467 +1682,425 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47">
-        <v>1947</v>
-      </c>
-      <c r="B47" s="1">
-        <v>34.299999999999997</v>
-      </c>
-      <c r="C47" s="1">
-        <v>14.6</v>
-      </c>
-      <c r="D47" s="1">
-        <v>76.7</v>
-      </c>
-      <c r="E47" s="2">
-        <v>31.4</v>
-      </c>
-      <c r="F47" s="1">
-        <v>44.2</v>
-      </c>
-      <c r="G47" s="2">
-        <v>12</v>
-      </c>
-      <c r="H47" s="3">
-        <v>1.02</v>
-      </c>
+        <v>1944</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="3"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48">
-        <v>1948</v>
-      </c>
-      <c r="B48" s="1">
-        <v>33.5</v>
-      </c>
-      <c r="C48" s="1">
-        <v>11.9</v>
-      </c>
-      <c r="D48" s="1">
-        <v>61.7</v>
-      </c>
-      <c r="E48" s="2">
-        <v>27.5</v>
-      </c>
-      <c r="F48" s="1">
-        <v>50.9</v>
-      </c>
-      <c r="G48" s="2">
-        <v>11.9</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0.99</v>
-      </c>
+        <v>1945</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="3"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49">
-        <v>1949</v>
-      </c>
-      <c r="B49" s="1">
-        <v>33</v>
-      </c>
-      <c r="C49" s="1">
-        <v>11.6</v>
-      </c>
-      <c r="D49" s="1">
-        <v>62.5</v>
-      </c>
-      <c r="E49" s="2">
-        <v>26.9</v>
-      </c>
-      <c r="F49" s="1">
-        <v>66.7</v>
-      </c>
-      <c r="G49" s="2">
-        <v>10.3</v>
-      </c>
-      <c r="H49" s="3">
-        <v>1.01</v>
-      </c>
+        <v>1946</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50">
-        <v>1950</v>
+        <v>1947</v>
       </c>
       <c r="B50" s="1">
-        <v>28.1</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="C50" s="1">
-        <v>10.9</v>
+        <v>14.6</v>
       </c>
       <c r="D50" s="1">
-        <v>60.1</v>
+        <v>76.7</v>
       </c>
       <c r="E50" s="2">
-        <v>27.4</v>
+        <v>31.4</v>
       </c>
       <c r="F50" s="1">
-        <v>84.9</v>
+        <v>44.2</v>
       </c>
       <c r="G50" s="2">
-        <v>8.6</v>
+        <v>12</v>
       </c>
       <c r="H50" s="3">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51">
-        <v>1951</v>
+        <v>1948</v>
       </c>
       <c r="B51" s="1">
-        <v>25.3</v>
+        <v>33.5</v>
       </c>
       <c r="C51" s="1">
-        <v>9.9</v>
+        <v>11.9</v>
       </c>
       <c r="D51" s="1">
-        <v>57.5</v>
+        <v>61.7</v>
       </c>
       <c r="E51" s="2">
         <v>27.5</v>
       </c>
       <c r="F51" s="1">
-        <v>92.2</v>
+        <v>50.9</v>
       </c>
       <c r="G51" s="2">
-        <v>7.9</v>
+        <v>11.9</v>
       </c>
       <c r="H51" s="3">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52">
-        <v>1952</v>
+        <v>1949</v>
       </c>
       <c r="B52" s="1">
-        <v>23.4</v>
+        <v>33</v>
       </c>
       <c r="C52" s="1">
-        <v>8.9</v>
+        <v>11.6</v>
       </c>
       <c r="D52" s="1">
-        <v>49.4</v>
+        <v>62.5</v>
       </c>
       <c r="E52" s="2">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="F52" s="1">
-        <v>92.3</v>
+        <v>66.7</v>
       </c>
       <c r="G52" s="2">
-        <v>7.9</v>
+        <v>10.3</v>
       </c>
       <c r="H52" s="3">
-        <v>0.92</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53">
-        <v>1953</v>
+        <v>1950</v>
       </c>
       <c r="B53" s="1">
-        <v>21.5</v>
+        <v>28.1</v>
       </c>
       <c r="C53" s="1">
-        <v>8.9</v>
+        <v>10.9</v>
       </c>
       <c r="D53" s="1">
-        <v>48.9</v>
+        <v>60.1</v>
       </c>
       <c r="E53" s="2">
-        <v>25.5</v>
+        <v>27.4</v>
       </c>
       <c r="F53" s="1">
-        <v>93.8</v>
+        <v>84.9</v>
       </c>
       <c r="G53" s="2">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="H53" s="3">
-        <v>0.86</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="B54" s="1">
-        <v>20</v>
+        <v>25.3</v>
       </c>
       <c r="C54" s="1">
-        <v>8.1999999999999993</v>
+        <v>9.9</v>
       </c>
       <c r="D54" s="1">
-        <v>44.6</v>
+        <v>57.5</v>
       </c>
       <c r="E54" s="2">
-        <v>24.1</v>
+        <v>27.5</v>
       </c>
       <c r="F54" s="1">
-        <v>95.6</v>
+        <v>92.2</v>
       </c>
       <c r="G54" s="2">
         <v>7.9</v>
       </c>
       <c r="H54" s="3">
-        <v>0.87</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="B55" s="1">
-        <v>19.399999999999999</v>
+        <v>23.4</v>
       </c>
       <c r="C55" s="1">
-        <v>7.8</v>
+        <v>8.9</v>
       </c>
       <c r="D55" s="1">
-        <v>39.799999999999997</v>
+        <v>49.4</v>
       </c>
       <c r="E55" s="2">
-        <v>22.3</v>
+        <v>25.4</v>
       </c>
       <c r="F55" s="1">
-        <v>95.8</v>
+        <v>92.3</v>
       </c>
       <c r="G55" s="2">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="H55" s="3">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56">
-        <v>1956</v>
+        <v>1953</v>
       </c>
       <c r="B56" s="1">
-        <v>18.399999999999999</v>
+        <v>21.5</v>
       </c>
       <c r="C56" s="1">
-        <v>8</v>
+        <v>8.9</v>
       </c>
       <c r="D56" s="1">
-        <v>40.6</v>
+        <v>48.9</v>
       </c>
       <c r="E56" s="2">
-        <v>23</v>
+        <v>25.5</v>
       </c>
       <c r="F56" s="1">
-        <v>97.1</v>
+        <v>93.8</v>
       </c>
       <c r="G56" s="2">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="H56" s="3">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="B57" s="1">
-        <v>17.2</v>
+        <v>20</v>
       </c>
       <c r="C57" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D57" s="1">
-        <v>40</v>
+        <v>44.6</v>
       </c>
       <c r="E57" s="2">
-        <v>21.6</v>
+        <v>24.1</v>
       </c>
       <c r="F57" s="1">
-        <v>101.2</v>
+        <v>95.6</v>
       </c>
       <c r="G57" s="2">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="H57" s="3">
-        <v>0.79</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="B58" s="1">
-        <v>18</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="C58" s="1">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="D58" s="1">
-        <v>34.5</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="E58" s="2">
-        <v>19.5</v>
+        <v>22.3</v>
       </c>
       <c r="F58" s="1">
-        <v>100.7</v>
+        <v>95.8</v>
       </c>
       <c r="G58" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H58" s="3">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59">
-        <v>1959</v>
+        <v>1956</v>
       </c>
       <c r="B59" s="1">
-        <v>17.5</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="C59" s="1">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="D59" s="1">
-        <v>33.700000000000003</v>
+        <v>40.6</v>
       </c>
       <c r="E59" s="2">
-        <v>18.600000000000001</v>
+        <v>23</v>
       </c>
       <c r="F59" s="1">
-        <v>100.6</v>
+        <v>97.1</v>
       </c>
       <c r="G59" s="2">
-        <v>9.1</v>
+        <v>7.9</v>
       </c>
       <c r="H59" s="3">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60">
-        <v>1960</v>
-      </c>
-      <c r="B60" s="2">
+        <v>1957</v>
+      </c>
+      <c r="B60" s="1">
         <v>17.2</v>
       </c>
       <c r="C60" s="1">
-        <v>7.6</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D60" s="1">
-        <v>30.7</v>
+        <v>40</v>
       </c>
       <c r="E60" s="2">
-        <v>17</v>
+        <v>21.6</v>
       </c>
       <c r="F60" s="1">
-        <v>100.4</v>
+        <v>101.2</v>
       </c>
       <c r="G60" s="2">
-        <v>9.3000000000000007</v>
+        <v>8.5</v>
       </c>
       <c r="H60" s="3">
-        <v>0.74</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="B61" s="1">
-        <v>16.899999999999999</v>
+        <v>18</v>
       </c>
       <c r="C61" s="1">
         <v>7.4</v>
       </c>
       <c r="D61" s="1">
-        <v>28.6</v>
+        <v>34.5</v>
       </c>
       <c r="E61" s="2">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="F61" s="1">
-        <v>101.7</v>
+        <v>100.7</v>
       </c>
       <c r="G61" s="2">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="H61" s="3">
-        <v>0.74</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="B62" s="1">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="C62" s="1">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="D62" s="1">
-        <v>26.4</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="E62" s="2">
-        <v>15.3</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="F62" s="1">
-        <v>98.8</v>
+        <v>100.6</v>
       </c>
       <c r="G62" s="2">
-        <v>9.8000000000000007</v>
+        <v>9.1</v>
       </c>
       <c r="H62" s="3">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63">
-        <v>1963</v>
-      </c>
-      <c r="B63" s="1">
-        <v>17.3</v>
+        <v>1960</v>
+      </c>
+      <c r="B63" s="2">
+        <v>17.2</v>
       </c>
       <c r="C63" s="1">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="D63" s="1">
-        <v>23.2</v>
+        <v>30.7</v>
       </c>
       <c r="E63" s="2">
-        <v>13.8</v>
+        <v>17</v>
       </c>
       <c r="F63" s="1">
-        <v>95.6</v>
+        <v>100.4</v>
       </c>
       <c r="G63" s="2">
-        <v>9.6999999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="H63" s="3">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="B64" s="1">
-        <v>17.7</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="C64" s="1">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="D64" s="1">
-        <v>20.399999999999999</v>
+        <v>28.6</v>
       </c>
       <c r="E64" s="2">
-        <v>12.4</v>
+        <v>16.5</v>
       </c>
       <c r="F64" s="1">
-        <v>89.2</v>
+        <v>101.7</v>
       </c>
       <c r="G64" s="2">
-        <v>9.9</v>
+        <v>9.4</v>
       </c>
       <c r="H64" s="3">
         <v>0.74</v>
@@ -2150,545 +2108,545 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="B65" s="1">
-        <v>18.600000000000001</v>
+        <v>17</v>
       </c>
       <c r="C65" s="1">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="D65" s="1">
-        <v>18.5</v>
+        <v>26.4</v>
       </c>
       <c r="E65" s="2">
-        <v>11.7</v>
+        <v>15.3</v>
       </c>
       <c r="F65" s="1">
-        <v>81.400000000000006</v>
+        <v>98.8</v>
       </c>
       <c r="G65" s="2">
-        <v>9.6999999999999993</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H65" s="3">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="B66" s="1">
-        <v>13.7</v>
+        <v>17.3</v>
       </c>
       <c r="C66" s="1">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="D66" s="1">
-        <v>19.3</v>
+        <v>23.2</v>
       </c>
       <c r="E66" s="2">
-        <v>12</v>
+        <v>13.8</v>
       </c>
       <c r="F66" s="1">
-        <v>98.2</v>
+        <v>95.6</v>
       </c>
       <c r="G66" s="2">
-        <v>9.5</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H66" s="3">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="B67" s="1">
-        <v>19.399999999999999</v>
+        <v>17.7</v>
       </c>
       <c r="C67" s="1">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="D67" s="1">
-        <v>14.9</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="E67" s="2">
+        <v>12.4</v>
+      </c>
+      <c r="F67" s="1">
+        <v>89.2</v>
+      </c>
+      <c r="G67" s="2">
         <v>9.9</v>
       </c>
-      <c r="F67" s="1">
-        <v>71.599999999999994</v>
-      </c>
-      <c r="G67" s="2">
-        <v>9.6</v>
-      </c>
       <c r="H67" s="3">
-        <v>0.84</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="B68" s="1">
         <v>18.600000000000001</v>
       </c>
       <c r="C68" s="1">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="D68" s="1">
-        <v>15.3</v>
+        <v>18.5</v>
       </c>
       <c r="E68" s="2">
-        <v>9.8000000000000007</v>
+        <v>11.7</v>
       </c>
       <c r="F68" s="1">
-        <v>71.099999999999994</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="G68" s="2">
-        <v>9.5</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H68" s="3">
-        <v>0.87</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69">
-        <v>1969</v>
+        <v>1966</v>
       </c>
       <c r="B69" s="1">
-        <v>18.5</v>
+        <v>13.7</v>
       </c>
       <c r="C69" s="1">
         <v>6.8</v>
       </c>
       <c r="D69" s="1">
-        <v>14.2</v>
+        <v>19.3</v>
       </c>
       <c r="E69" s="2">
-        <v>9.1</v>
+        <v>12</v>
       </c>
       <c r="F69" s="1">
-        <v>68.599999999999994</v>
+        <v>98.2</v>
       </c>
       <c r="G69" s="2">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="H69" s="3">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="B70" s="1">
-        <v>18.8</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="C70" s="1">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="D70" s="1">
-        <v>13.1</v>
+        <v>14.9</v>
       </c>
       <c r="E70" s="2">
-        <v>8.6999999999999993</v>
+        <v>9.9</v>
       </c>
       <c r="F70" s="1">
-        <v>65.3</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="G70" s="2">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="H70" s="3">
-        <v>0.93</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="B71" s="1">
-        <v>19.2</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="C71" s="1">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="D71" s="1">
-        <v>12.4</v>
+        <v>15.3</v>
       </c>
       <c r="E71" s="2">
-        <v>8.1999999999999993</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F71" s="1">
-        <v>61.4</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="G71" s="2">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="H71" s="3">
-        <v>0.99</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72">
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="B72" s="1">
-        <v>19.3</v>
+        <v>18.5</v>
       </c>
       <c r="C72" s="1">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="D72" s="1">
-        <v>11.7</v>
+        <v>14.2</v>
       </c>
       <c r="E72" s="2">
-        <v>7.8</v>
+        <v>9.1</v>
       </c>
       <c r="F72" s="1">
-        <v>57.8</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="G72" s="2">
-        <v>10.4</v>
+        <v>9.6</v>
       </c>
       <c r="H72" s="3">
-        <v>1.02</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="B73" s="1">
-        <v>19.399999999999999</v>
+        <v>18.8</v>
       </c>
       <c r="C73" s="1">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="D73" s="1">
-        <v>11.3</v>
+        <v>13.1</v>
       </c>
       <c r="E73" s="2">
-        <v>7.4</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F73" s="1">
-        <v>52.6</v>
+        <v>65.3</v>
       </c>
       <c r="G73" s="2">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="H73" s="3">
-        <v>1.04</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="B74" s="1">
-        <v>18.600000000000001</v>
+        <v>19.2</v>
       </c>
       <c r="C74" s="1">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="D74" s="1">
-        <v>10.8</v>
+        <v>12.4</v>
       </c>
       <c r="E74" s="2">
-        <v>7.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F74" s="1">
-        <v>51.3</v>
+        <v>61.4</v>
       </c>
       <c r="G74" s="2">
-        <v>9.1</v>
+        <v>10.5</v>
       </c>
       <c r="H74" s="3">
-        <v>1.04</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="B75" s="1">
-        <v>17.100000000000001</v>
+        <v>19.3</v>
       </c>
       <c r="C75" s="1">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="D75" s="1">
-        <v>10</v>
+        <v>11.7</v>
       </c>
       <c r="E75" s="2">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="F75" s="1">
-        <v>50.8</v>
+        <v>57.8</v>
       </c>
       <c r="G75" s="2">
-        <v>8.5</v>
+        <v>10.4</v>
       </c>
       <c r="H75" s="3">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="B76" s="1">
-        <v>16.3</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="C76" s="1">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="D76" s="1">
-        <v>9.3000000000000007</v>
+        <v>11.3</v>
       </c>
       <c r="E76" s="2">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="F76" s="1">
-        <v>52.7</v>
+        <v>52.6</v>
       </c>
       <c r="G76" s="2">
-        <v>7.8</v>
+        <v>9.9</v>
       </c>
       <c r="H76" s="3">
-        <v>1.1100000000000001</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77">
-        <v>1977</v>
+        <v>1974</v>
       </c>
       <c r="B77" s="1">
-        <v>15.5</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="C77" s="1">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="D77" s="1">
-        <v>8.9</v>
+        <v>10.8</v>
       </c>
       <c r="E77" s="2">
-        <v>6.1</v>
+        <v>7.1</v>
       </c>
       <c r="F77" s="1">
-        <v>51.5</v>
+        <v>51.3</v>
       </c>
       <c r="G77" s="2">
-        <v>7.2</v>
+        <v>9.1</v>
       </c>
       <c r="H77" s="3">
-        <v>1.1399999999999999</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78">
-        <v>1978</v>
+        <v>1975</v>
       </c>
       <c r="B78" s="1">
-        <v>14.9</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="C78" s="1">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="D78" s="1">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="E78" s="2">
-        <v>5.6</v>
+        <v>6.8</v>
       </c>
       <c r="F78" s="1">
-        <v>48.7</v>
+        <v>50.8</v>
       </c>
       <c r="G78" s="2">
-        <v>6.9</v>
+        <v>8.5</v>
       </c>
       <c r="H78" s="3">
-        <v>1.1499999999999999</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79">
-        <v>1979</v>
+        <v>1976</v>
       </c>
       <c r="B79" s="1">
-        <v>14.2</v>
+        <v>16.3</v>
       </c>
       <c r="C79" s="1">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="D79" s="1">
-        <v>7.9</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E79" s="2">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="F79" s="1">
-        <v>47.7</v>
+        <v>52.7</v>
       </c>
       <c r="G79" s="2">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="H79" s="3">
-        <v>1.17</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="B80" s="1">
-        <v>13.6</v>
+        <v>15.5</v>
       </c>
       <c r="C80" s="1">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="D80" s="1">
-        <v>7.5</v>
+        <v>8.9</v>
       </c>
       <c r="E80" s="2">
-        <v>4.9000000000000004</v>
+        <v>6.1</v>
       </c>
       <c r="F80" s="1">
-        <v>46.8</v>
+        <v>51.5</v>
       </c>
       <c r="G80" s="2">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="H80" s="3">
-        <v>1.22</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="B81" s="1">
-        <v>13</v>
+        <v>14.9</v>
       </c>
       <c r="C81" s="1">
         <v>6.1</v>
       </c>
       <c r="D81" s="1">
-        <v>7.1</v>
+        <v>8.4</v>
       </c>
       <c r="E81" s="2">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
       <c r="F81" s="1">
-        <v>49.2</v>
+        <v>48.7</v>
       </c>
       <c r="G81" s="2">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="H81" s="3">
-        <v>1.32</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82">
-        <v>1982</v>
+        <v>1979</v>
       </c>
       <c r="B82" s="1">
-        <v>12.8</v>
+        <v>14.2</v>
       </c>
       <c r="C82" s="1">
         <v>6</v>
       </c>
       <c r="D82" s="1">
-        <v>6.6</v>
+        <v>7.9</v>
       </c>
       <c r="E82" s="2">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="F82" s="1">
-        <v>49</v>
+        <v>47.7</v>
       </c>
       <c r="G82" s="2">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="H82" s="3">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="B83" s="1">
-        <v>12.7</v>
+        <v>13.6</v>
       </c>
       <c r="C83" s="1">
         <v>6.2</v>
       </c>
       <c r="D83" s="1">
-        <v>6.2</v>
+        <v>7.5</v>
       </c>
       <c r="E83" s="2">
-        <v>3.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F83" s="1">
-        <v>45.5</v>
+        <v>46.8</v>
       </c>
       <c r="G83" s="2">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="H83" s="3">
-        <v>1.51</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84">
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="B84" s="1">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="C84" s="1">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="D84" s="1">
-        <v>6</v>
+        <v>7.1</v>
       </c>
       <c r="E84" s="2">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="F84" s="1">
-        <v>46.3</v>
+        <v>49.2</v>
       </c>
       <c r="G84" s="2">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="H84" s="3">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="B85" s="1">
-        <v>11.9</v>
+        <v>12.8</v>
       </c>
       <c r="C85" s="1">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="D85" s="1">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="E85" s="2">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="F85" s="1">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G85" s="2">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="H85" s="3">
         <v>1.39</v>
@@ -2696,845 +2654,845 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="B86" s="1">
-        <v>11.4</v>
+        <v>12.7</v>
       </c>
       <c r="C86" s="1">
         <v>6.2</v>
       </c>
       <c r="D86" s="1">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="E86" s="2">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="F86" s="1">
-        <v>45.3</v>
+        <v>45.5</v>
       </c>
       <c r="G86" s="2">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="H86" s="3">
-        <v>1.37</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="B87" s="1">
-        <v>11.1</v>
+        <v>12.5</v>
       </c>
       <c r="C87" s="1">
         <v>6.2</v>
       </c>
       <c r="D87" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E87" s="2">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="F87" s="1">
-        <v>45.3</v>
+        <v>46.3</v>
       </c>
       <c r="G87" s="2">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="H87" s="3">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="B88" s="1">
-        <v>10.8</v>
+        <v>11.9</v>
       </c>
       <c r="C88" s="1">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="D88" s="1">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="E88" s="2">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="F88" s="1">
-        <v>43.4</v>
+        <v>46</v>
       </c>
       <c r="G88" s="2">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="H88" s="3">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="B89" s="1">
-        <v>10.199999999999999</v>
+        <v>11.4</v>
       </c>
       <c r="C89" s="1">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="D89" s="1">
-        <v>4.5999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="E89" s="2">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="F89" s="1">
-        <v>42.4</v>
+        <v>45.3</v>
       </c>
       <c r="G89" s="2">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="H89" s="3">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90">
-        <v>1990</v>
+        <v>1987</v>
       </c>
       <c r="B90" s="1">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="C90" s="1">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="D90" s="1">
-        <v>4.5999999999999996</v>
+        <v>5</v>
       </c>
       <c r="E90" s="2">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="F90" s="1">
-        <v>42.3</v>
+        <v>45.3</v>
       </c>
       <c r="G90" s="2">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="H90" s="3">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="B91" s="1">
-        <v>9.9</v>
+        <v>10.8</v>
       </c>
       <c r="C91" s="1">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="D91" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="E91" s="2">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="F91" s="1">
-        <v>39.700000000000003</v>
+        <v>43.4</v>
       </c>
       <c r="G91" s="2">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="H91" s="3">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92">
-        <v>1992</v>
+        <v>1989</v>
       </c>
       <c r="B92" s="1">
-        <v>9.8000000000000007</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="C92" s="1">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="D92" s="1">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E92" s="2">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="F92" s="1">
-        <v>38.9</v>
+        <v>42.4</v>
       </c>
       <c r="G92" s="2">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="H92" s="3">
-        <v>1.45</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="B93" s="1">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="C93" s="1">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="D93" s="1">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E93" s="2">
-        <v>2.2999999999999998</v>
+        <v>2.6</v>
       </c>
       <c r="F93" s="1">
-        <v>36.6</v>
+        <v>42.3</v>
       </c>
       <c r="G93" s="2">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="H93" s="3">
-        <v>1.52</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="B94" s="1">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="C94" s="1">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="D94" s="1">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E94" s="2">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="F94" s="1">
-        <v>33.5</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="G94" s="2">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="H94" s="3">
-        <v>1.57</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="B95" s="1">
-        <v>9.6</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="C95" s="1">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="D95" s="1">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="E95" s="2">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="F95" s="1">
-        <v>32.1</v>
+        <v>38.9</v>
       </c>
       <c r="G95" s="2">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="H95" s="3">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="B96" s="1">
-        <v>9.6999999999999993</v>
+        <v>9.6</v>
       </c>
       <c r="C96" s="1">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="D96" s="1">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="E96" s="2">
-        <v>2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F96" s="1">
-        <v>31.7</v>
+        <v>36.6</v>
       </c>
       <c r="G96" s="2">
         <v>6.4</v>
       </c>
       <c r="H96" s="3">
-        <v>1.66</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="B97" s="1">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="C97" s="1">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="D97" s="1">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="E97" s="2">
-        <v>1.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F97" s="1">
-        <v>32.1</v>
+        <v>33.5</v>
       </c>
       <c r="G97" s="2">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="H97" s="3">
-        <v>1.78</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="B98" s="1">
         <v>9.6</v>
       </c>
       <c r="C98" s="1">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="D98" s="1">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="E98" s="2">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F98" s="1">
-        <v>31.4</v>
+        <v>32.1</v>
       </c>
       <c r="G98" s="2">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="H98" s="3">
-        <v>1.94</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="B99" s="1">
-        <v>9.4</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="C99" s="1">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="D99" s="1">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="E99" s="2">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="F99" s="1">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="G99" s="2">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="H99" s="3">
-        <v>2</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="B100" s="1">
         <v>9.5</v>
       </c>
       <c r="C100" s="1">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="D100" s="1">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="E100" s="2">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="F100" s="1">
-        <v>31.2</v>
+        <v>32.1</v>
       </c>
       <c r="G100" s="2">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H100" s="3">
-        <v>2.1</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="B101" s="1">
-        <v>9.3000000000000007</v>
+        <v>9.6</v>
       </c>
       <c r="C101" s="1">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="D101" s="1">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="E101" s="2">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="F101" s="1">
-        <v>31</v>
+        <v>31.4</v>
       </c>
       <c r="G101" s="2">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="H101" s="3">
-        <v>2.27</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="B102" s="1">
-        <v>9.1999999999999993</v>
+        <v>9.4</v>
       </c>
       <c r="C102" s="1">
         <v>7.8</v>
       </c>
       <c r="D102" s="1">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="E102" s="2">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="F102" s="1">
-        <v>31.1</v>
+        <v>31.6</v>
       </c>
       <c r="G102" s="2">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="H102" s="3">
-        <v>2.2999999999999998</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="B103" s="1">
-        <v>8.9</v>
+        <v>9.5</v>
       </c>
       <c r="C103" s="1">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="D103" s="1">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="E103" s="2">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="F103" s="1">
-        <v>30.5</v>
+        <v>31.2</v>
       </c>
       <c r="G103" s="2">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="H103" s="3">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="B104" s="1">
-        <v>8.8000000000000007</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="C104" s="1">
-        <v>8.1999999999999993</v>
+        <v>7.7</v>
       </c>
       <c r="D104" s="1">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="E104" s="2">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F104" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G104" s="2">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="H104" s="3">
-        <v>2.15</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="B105" s="1">
-        <v>8.4</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C105" s="1">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="D105" s="1">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="E105" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="F105" s="2">
-        <v>29.1</v>
+        <v>1.7</v>
+      </c>
+      <c r="F105" s="1">
+        <v>31.1</v>
       </c>
       <c r="G105" s="2">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="H105" s="3">
-        <v>2.08</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="B106" s="1">
-        <v>8.6999999999999993</v>
+        <v>8.9</v>
       </c>
       <c r="C106" s="1">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="D106" s="1">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="E106" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="F106" s="2">
-        <v>27.5</v>
+        <v>1.7</v>
+      </c>
+      <c r="F106" s="1">
+        <v>30.5</v>
       </c>
       <c r="G106" s="2">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="H106" s="3">
-        <v>2.04</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="B107" s="1">
-        <v>8.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C107" s="1">
-        <v>8.8000000000000007</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D107" s="1">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="E107" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="F107" s="2">
-        <v>26.2</v>
+        <v>1.5</v>
+      </c>
+      <c r="F107" s="1">
+        <v>30</v>
       </c>
       <c r="G107" s="2">
         <v>5.7</v>
       </c>
       <c r="H107" s="3">
-        <v>2.02</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="B108" s="1">
-        <v>8.6999999999999993</v>
+        <v>8.4</v>
       </c>
       <c r="C108" s="1">
-        <v>9.1</v>
+        <v>8.6</v>
       </c>
       <c r="D108" s="1">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="E108" s="2">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="F108" s="2">
-        <v>25.2</v>
+        <v>29.1</v>
       </c>
       <c r="G108" s="2">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="H108" s="3">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="B109" s="1">
-        <v>8.5</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="C109" s="1">
-        <v>9.1</v>
+        <v>8.6</v>
       </c>
       <c r="D109" s="1">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="E109" s="2">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="F109" s="2">
-        <v>24.6</v>
+        <v>27.5</v>
       </c>
       <c r="G109" s="2">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="H109" s="3">
-        <v>2.0099999999999998</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="B110" s="1">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="C110" s="1">
-        <v>9.5</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D110" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.6</v>
       </c>
       <c r="E110" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="F110" s="2">
-        <v>24.2</v>
+        <v>26.2</v>
       </c>
       <c r="G110" s="2">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="H110" s="3">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="B111" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="C111" s="1">
-        <v>9.9</v>
+        <v>9.1</v>
       </c>
       <c r="D111" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.6</v>
       </c>
       <c r="E111" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="F111" s="2">
-        <v>23.9</v>
+        <v>25.2</v>
       </c>
       <c r="G111" s="2">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="H111" s="3">
-        <v>1.87</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="B112" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.5</v>
       </c>
       <c r="C112" s="1">
-        <v>10</v>
+        <v>9.1</v>
       </c>
       <c r="D112" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="E112" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F112" s="2">
-        <v>23.4</v>
+        <v>24.6</v>
       </c>
       <c r="G112" s="2">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="H112" s="3">
-        <v>1.87</v>
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="B113" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.5</v>
       </c>
       <c r="C113" s="1">
-        <v>10.1</v>
+        <v>9.5</v>
       </c>
       <c r="D113" s="1">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E113" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F113" s="2">
-        <v>22.9</v>
+        <v>24.2</v>
       </c>
       <c r="G113" s="2">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="H113" s="3">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114">
-        <v>2014</v>
-      </c>
-      <c r="B114" s="2">
-        <v>8</v>
+        <v>2011</v>
+      </c>
+      <c r="B114" s="1">
+        <v>8.3000000000000007</v>
       </c>
       <c r="C114" s="1">
-        <v>10.1</v>
+        <v>9.9</v>
       </c>
       <c r="D114" s="1">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E114" s="2">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F114" s="2">
-        <v>22.9</v>
+        <v>23.9</v>
       </c>
       <c r="G114" s="2">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="H114" s="3">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115">
-        <v>2015</v>
-      </c>
-      <c r="B115" s="6">
-        <v>8</v>
-      </c>
-      <c r="C115" s="7">
-        <v>10.3</v>
+        <v>2012</v>
+      </c>
+      <c r="B115" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C115" s="1">
+        <v>10</v>
       </c>
       <c r="D115" s="1">
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E115" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F115" s="2">
-        <v>22</v>
+        <v>23.4</v>
       </c>
       <c r="G115" s="2">
-        <v>5.0999999999999996</v>
+        <v>5.3</v>
       </c>
       <c r="H115" s="3">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116">
-        <v>2016</v>
-      </c>
-      <c r="B116" s="6">
-        <v>7.8</v>
-      </c>
-      <c r="C116" s="7">
-        <v>10.5</v>
+        <v>2013</v>
+      </c>
+      <c r="B116" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C116" s="1">
+        <v>10.1</v>
       </c>
       <c r="D116" s="1">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="E116" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F116" s="2">
-        <v>21</v>
+        <v>22.9</v>
       </c>
       <c r="G116" s="2">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="H116" s="3">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117">
-        <v>2017</v>
-      </c>
-      <c r="B117" s="6">
-        <v>7.6</v>
-      </c>
-      <c r="C117" s="7">
-        <v>10.8</v>
+        <v>2014</v>
+      </c>
+      <c r="B117" s="2">
+        <v>8</v>
+      </c>
+      <c r="C117" s="1">
+        <v>10.1</v>
       </c>
       <c r="D117" s="1">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="E117" s="2">
         <v>0.9</v>
       </c>
       <c r="F117" s="2">
-        <v>21.1</v>
+        <v>22.9</v>
       </c>
       <c r="G117" s="2">
-        <v>4.9000000000000004</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H117" s="3">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="B118" s="6">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="C118" s="7">
-        <v>11</v>
+        <v>10.3</v>
       </c>
       <c r="D118" s="1">
         <v>1.9</v>
@@ -3543,142 +3501,220 @@
         <v>0.9</v>
       </c>
       <c r="F118" s="2">
-        <v>20.9</v>
+        <v>22</v>
       </c>
       <c r="G118" s="2">
-        <v>4.7</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H118" s="3">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="B119" s="6">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="C119" s="7">
-        <v>11.2</v>
+        <v>10.5</v>
       </c>
       <c r="D119" s="1">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="E119" s="2">
         <v>0.9</v>
       </c>
       <c r="F119" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G119" s="2">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H119" s="3">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="B120" s="6">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="C120" s="7">
-        <v>11.1</v>
-      </c>
-      <c r="D120" s="2">
-        <v>1.8</v>
+        <v>10.8</v>
+      </c>
+      <c r="D120" s="1">
+        <v>1.9</v>
       </c>
       <c r="E120" s="2">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F120" s="2">
-        <v>20.100000000000001</v>
+        <v>21.1</v>
       </c>
       <c r="G120" s="2">
-        <v>4.3</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H120" s="3">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B121" s="6">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="C121" s="7">
-        <v>11.7</v>
-      </c>
-      <c r="D121" s="2">
-        <v>1.7</v>
+        <v>11</v>
+      </c>
+      <c r="D121" s="1">
+        <v>1.9</v>
       </c>
       <c r="E121" s="2">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F121" s="2">
-        <v>19.7</v>
+        <v>20.9</v>
       </c>
       <c r="G121" s="2">
-        <v>4.0999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="H121" s="3">
-        <v>1.5</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="B122" s="6">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="C122" s="7">
-        <v>12.9</v>
-      </c>
-      <c r="D122" s="2">
-        <v>1.8</v>
+        <v>11.2</v>
+      </c>
+      <c r="D122" s="1">
+        <v>1.9</v>
       </c>
       <c r="E122" s="2">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F122" s="2">
-        <v>19.3</v>
+        <v>22</v>
       </c>
       <c r="G122" s="2">
-        <v>4.0999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="H122" s="3">
-        <v>1.47</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123">
+        <v>2020</v>
+      </c>
+      <c r="B123" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="C123" s="7">
+        <v>11.1</v>
+      </c>
+      <c r="D123" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="E123" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F123" s="2">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G123" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="H123" s="3">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124">
+        <v>2021</v>
+      </c>
+      <c r="B124" s="6">
+        <v>6.6</v>
+      </c>
+      <c r="C124" s="7">
+        <v>11.7</v>
+      </c>
+      <c r="D124" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="E124" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F124" s="2">
+        <v>19.7</v>
+      </c>
+      <c r="G124" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H124" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125">
+        <v>2022</v>
+      </c>
+      <c r="B125" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="C125" s="7">
+        <v>12.9</v>
+      </c>
+      <c r="D125" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="E125" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F125" s="2">
+        <v>19.3</v>
+      </c>
+      <c r="G125" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H125" s="3">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126">
         <v>2023</v>
       </c>
-      <c r="B123" s="8">
+      <c r="B126" s="8">
         <v>6</v>
       </c>
-      <c r="C123" s="9">
+      <c r="C126" s="9">
         <v>13</v>
       </c>
-      <c r="D123" s="4">
+      <c r="D126" s="4">
         <v>1.8</v>
       </c>
-      <c r="E123" s="4">
+      <c r="E126" s="4">
         <v>0.8</v>
       </c>
-      <c r="F123" s="4">
+      <c r="F126" s="4">
         <v>20.9</v>
       </c>
-      <c r="G123" s="4">
+      <c r="G126" s="4">
         <v>3.9</v>
       </c>
-      <c r="H123" s="5">
+      <c r="H126" s="5">
         <v>1.52</v>
       </c>
     </row>
